--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -854,10 +866,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -901,28 +913,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -947,28 +959,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1126,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1161,28 +1173,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1219,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1432,10 +1444,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1479,28 +1491,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1525,28 +1537,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1866,10 +1878,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1913,28 +1925,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1959,28 +1971,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2068,10 +2080,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2115,28 +2127,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2161,28 +2173,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2299,10 +2311,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2346,28 +2358,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2392,28 +2404,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2762,10 +2774,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2809,28 +2821,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2855,28 +2867,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3051,10 +3063,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3098,28 +3110,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3144,28 +3156,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3282,10 +3294,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3329,28 +3341,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3375,28 +3387,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3745,10 +3757,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3792,28 +3804,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3838,28 +3850,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3947,10 +3959,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3994,28 +4006,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4040,28 +4052,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4149,10 +4161,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4196,28 +4208,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4242,28 +4254,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4380,10 +4392,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4427,28 +4439,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4473,28 +4485,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4640,10 +4652,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4687,28 +4699,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4733,28 +4745,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4871,10 +4883,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4918,28 +4930,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4964,28 +4976,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5073,10 +5085,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5120,28 +5132,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5166,28 +5178,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5275,10 +5287,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5322,28 +5334,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5368,28 +5380,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5477,10 +5489,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5524,28 +5536,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5570,28 +5582,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5910,10 +5922,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5957,28 +5969,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6095,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
